--- a/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
+++ b/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
@@ -274,8 +274,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2103534488"/>
-        <c:axId val="2103634728"/>
+        <c:axId val="2136455672"/>
+        <c:axId val="2130574680"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -439,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131359816"/>
-        <c:axId val="2131356728"/>
+        <c:axId val="2129847320"/>
+        <c:axId val="2130467016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2103534488"/>
+        <c:axId val="2136455672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -490,12 +490,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103634728"/>
+        <c:crossAx val="2130574680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103634728"/>
+        <c:axId val="2130574680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,12 +544,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103534488"/>
+        <c:crossAx val="2136455672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131356728"/>
+        <c:axId val="2130467016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -598,14 +598,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131359816"/>
+        <c:crossAx val="2129847320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131359816"/>
+        <c:axId val="2129847320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131356728"/>
+        <c:crossAx val="2130467016"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -817,11 +818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143812488"/>
-        <c:axId val="2143809320"/>
+        <c:axId val="2136379112"/>
+        <c:axId val="2136374232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143812488"/>
+        <c:axId val="2136379112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,12 +832,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143809320"/>
+        <c:crossAx val="2136374232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143809320"/>
+        <c:axId val="2136374232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143812488"/>
+        <c:crossAx val="2136379112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -903,16 +904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
+++ b/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
@@ -220,43 +220,43 @@
                   <c:v>15.0650024414062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.89835164835164</c:v>
+                  <c:v>7.89642333984375</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.816650390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.58333333333333</c:v>
+                  <c:v>4.58221435546875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.76678876678876</c:v>
+                  <c:v>3.765869140625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.17155067155067</c:v>
+                  <c:v>3.1707763671875</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.74658203125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.41147741147741</c:v>
+                  <c:v>2.410888671875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1535409035409</c:v>
+                  <c:v>2.15301513671875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.91684995112414</c:v>
+                  <c:v>1.91497802734375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.70607282502443</c:v>
+                  <c:v>1.70440673828125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.54456654456654</c:v>
+                  <c:v>1.544189453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.38888888888888</c:v>
+                  <c:v>1.3885498046875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.27442002442002</c:v>
+                  <c:v>1.27410888671875</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.177978515625</c:v>
@@ -274,8 +274,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136455672"/>
-        <c:axId val="2130574680"/>
+        <c:axId val="2081852968"/>
+        <c:axId val="2081859624"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -439,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129847320"/>
-        <c:axId val="2130467016"/>
+        <c:axId val="2081871016"/>
+        <c:axId val="2081865352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136455672"/>
+        <c:axId val="2081852968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -490,12 +490,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130574680"/>
+        <c:crossAx val="2081859624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130574680"/>
+        <c:axId val="2081859624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,12 +544,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136455672"/>
+        <c:crossAx val="2081852968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130467016"/>
+        <c:axId val="2081865352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -598,14 +598,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129847320"/>
+        <c:crossAx val="2081871016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129847320"/>
+        <c:axId val="2081871016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130467016"/>
+        <c:crossAx val="2081865352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -764,43 +764,43 @@
                   <c:v>15.0650024414062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.89835164835164</c:v>
+                  <c:v>7.89642333984375</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.816650390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.58333333333333</c:v>
+                  <c:v>4.58221435546875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.76678876678876</c:v>
+                  <c:v>3.765869140625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.17155067155067</c:v>
+                  <c:v>3.1707763671875</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.74658203125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.41147741147741</c:v>
+                  <c:v>2.410888671875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1535409035409</c:v>
+                  <c:v>2.15301513671875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.91684995112414</c:v>
+                  <c:v>1.91497802734375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.70607282502443</c:v>
+                  <c:v>1.70440673828125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.54456654456654</c:v>
+                  <c:v>1.544189453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.38888888888888</c:v>
+                  <c:v>1.3885498046875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.27442002442002</c:v>
+                  <c:v>1.27410888671875</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.177978515625</c:v>
@@ -818,11 +818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136379112"/>
-        <c:axId val="2136374232"/>
+        <c:axId val="2081919272"/>
+        <c:axId val="2081922232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136379112"/>
+        <c:axId val="2081919272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,12 +832,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136374232"/>
+        <c:crossAx val="2081922232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136374232"/>
+        <c:axId val="2081922232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136379112"/>
+        <c:crossAx val="2081919272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="C1:D17"/>
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1318,7 +1318,7 @@
         <v>59.156499373626502</v>
       </c>
       <c r="D4">
-        <v>7.8983516483516398</v>
+        <v>7.89642333984375</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>61.520049592926199</v>
       </c>
       <c r="D6">
-        <v>4.5833333333333304</v>
+        <v>4.58221435546875</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1360,7 +1360,7 @@
         <v>62.372151361303999</v>
       </c>
       <c r="D7">
-        <v>3.7667887667887601</v>
+        <v>3.765869140625</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1374,7 +1374,7 @@
         <v>63.119147482704498</v>
       </c>
       <c r="D8">
-        <v>3.1715506715506701</v>
+        <v>3.1707763671875</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1402,7 +1402,7 @@
         <v>64.309032045371794</v>
       </c>
       <c r="D10">
-        <v>2.41147741147741</v>
+        <v>2.410888671875</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>64.800332777372603</v>
       </c>
       <c r="D11">
-        <v>2.1535409035408999</v>
+        <v>2.15301513671875</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1430,7 +1430,7 @@
         <v>65.309165656745506</v>
       </c>
       <c r="D12">
-        <v>1.9168499511241399</v>
+        <v>1.91497802734375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1444,7 +1444,7 @@
         <v>65.815071183759997</v>
       </c>
       <c r="D13">
-        <v>1.7060728250244299</v>
+        <v>1.70440673828125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>66.243797789878201</v>
       </c>
       <c r="D14">
-        <v>1.54456654456654</v>
+        <v>1.544189453125</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1472,7 +1472,7 @@
         <v>66.7051889917051</v>
       </c>
       <c r="D15">
-        <v>1.38888888888888</v>
+        <v>1.3885498046875</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>67.078738160079993</v>
       </c>
       <c r="D16">
-        <v>1.2744200244200199</v>
+        <v>1.27410888671875</v>
       </c>
     </row>
     <row r="17" spans="1:4">

--- a/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
+++ b/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
@@ -132,7 +132,10 @@
           <c:spPr>
             <a:ln w="25400">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -141,11 +144,17 @@
             <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -274,8 +283,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081852968"/>
-        <c:axId val="2081859624"/>
+        <c:axId val="2108214856"/>
+        <c:axId val="2108221512"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -297,7 +306,7 @@
           <c:spPr>
             <a:ln w="25400">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -306,11 +315,11 @@
             <c:size val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="C0504D"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -439,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081871016"/>
-        <c:axId val="2081865352"/>
+        <c:axId val="2108232904"/>
+        <c:axId val="2108227240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081852968"/>
+        <c:axId val="2108214856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -490,12 +499,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081859624"/>
+        <c:crossAx val="2108221512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081859624"/>
+        <c:axId val="2108221512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,12 +553,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081852968"/>
+        <c:crossAx val="2108214856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081865352"/>
+        <c:axId val="2108227240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -598,14 +607,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081871016"/>
+        <c:crossAx val="2108232904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081871016"/>
+        <c:axId val="2108232904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081865352"/>
+        <c:crossAx val="2108227240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -818,11 +827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081919272"/>
-        <c:axId val="2081922232"/>
+        <c:axId val="2108254824"/>
+        <c:axId val="2108257784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081919272"/>
+        <c:axId val="2108254824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,12 +841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081922232"/>
+        <c:crossAx val="2108257784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081922232"/>
+        <c:axId val="2108257784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081919272"/>
+        <c:crossAx val="2108254824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
+++ b/TestForImageDegrationOfSteganography/csv/Airplane.xlsx
@@ -283,8 +283,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108214856"/>
-        <c:axId val="2108221512"/>
+        <c:axId val="2124072776"/>
+        <c:axId val="2124078872"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -448,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108232904"/>
-        <c:axId val="2108227240"/>
+        <c:axId val="2124090264"/>
+        <c:axId val="2124084600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108214856"/>
+        <c:axId val="2124072776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -499,12 +499,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108221512"/>
+        <c:crossAx val="2124078872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108221512"/>
+        <c:axId val="2124078872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,12 +553,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108214856"/>
+        <c:crossAx val="2124072776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108227240"/>
+        <c:axId val="2124084600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -607,14 +607,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108232904"/>
+        <c:crossAx val="2124090264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108232904"/>
+        <c:axId val="2124090264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108227240"/>
+        <c:crossAx val="2124084600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -827,11 +827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108254824"/>
-        <c:axId val="2108257784"/>
+        <c:axId val="2124138472"/>
+        <c:axId val="2124141432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108254824"/>
+        <c:axId val="2124138472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,12 +841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108257784"/>
+        <c:crossAx val="2124141432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108257784"/>
+        <c:axId val="2124141432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +857,294 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108254824"/>
+        <c:crossAx val="2124138472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airplane.csv!$B$6:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.69230769230769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airplane.csv!$C$6:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>61.5200495929262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.372151361304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.1191474827045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.742877863883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.30903204537179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.8003327773726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.3091656567455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.81507118376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.2437977898782</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.7051889917051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.07873816007999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.4194299115587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airplane.csv!$B$6:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.69230769230769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airplane.csv!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.58221435546875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.765869140625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1707763671875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.74658203125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.410888671875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.15301513671875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.91497802734375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.70440673828125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.544189453125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3885498046875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27410888671875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.177978515625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2136705784"/>
+        <c:axId val="2078978664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2136705784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2078978664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2078978664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2136705784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -883,16 +1170,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -936,6 +1223,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1268,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
